--- a/dtpu_configurations/only_integer16/50mhz/mxu_3x3/timing.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_3x3/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>1.289615511894226</v>
+        <v>7.949464321136475</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.02909949980676174</v>
+        <v>0.03357536345720291</v>
       </c>
     </row>
   </sheetData>
